--- a/docs/ValueSet-radiation-countermeasures-vs-complete.xlsx
+++ b/docs/ValueSet-radiation-countermeasures-vs-complete.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T22:56:50-05:00</t>
+    <t>2025-06-01T23:37:11-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-radiation-countermeasures-vs-complete.xlsx
+++ b/docs/ValueSet-radiation-countermeasures-vs-complete.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.2</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T23:37:11-05:00</t>
+    <t>2025-12-25T11:43:35-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-radiation-countermeasures-vs-complete.xlsx
+++ b/docs/ValueSet-radiation-countermeasures-vs-complete.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T11:43:35-07:00</t>
+    <t>2025-12-29T13:16:13-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-radiation-countermeasures-vs-complete.xlsx
+++ b/docs/ValueSet-radiation-countermeasures-vs-complete.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T13:16:13-07:00</t>
+    <t>2025-12-29T20:17:52-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-radiation-countermeasures-vs-complete.xlsx
+++ b/docs/ValueSet-radiation-countermeasures-vs-complete.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T20:17:52-07:00</t>
+    <t>2025-12-29T22:23:37-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-radiation-countermeasures-vs-complete.xlsx
+++ b/docs/ValueSet-radiation-countermeasures-vs-complete.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.5.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T22:23:37-07:00</t>
+    <t>2025-12-29T23:18:22-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-radiation-countermeasures-vs-complete.xlsx
+++ b/docs/ValueSet-radiation-countermeasures-vs-complete.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.4</t>
+    <t>0.5.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T23:18:22-07:00</t>
+    <t>2025-12-30T00:07:25-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-radiation-countermeasures-vs-complete.xlsx
+++ b/docs/ValueSet-radiation-countermeasures-vs-complete.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-30T13:15:27-07:00</t>
+    <t>2025-12-30T19:11:20-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
